--- a/Template/Template_kpi_.xlsx
+++ b/Template/Template_kpi_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">ผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกรดหลังการประเมิน</t>
   </si>
   <si>
     <t xml:space="preserve">สถานะ</t>
@@ -297,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,33 +327,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="47" style="0" width="8.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,6 +415,7 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -478,6 +483,9 @@
       </c>
       <c r="V3" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Template_kpi_.xlsx
+++ b/Template/Template_kpi_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">ผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกรดหลังการประเมิน</t>
   </si>
   <si>
     <t xml:space="preserve">สถานะ</t>
@@ -297,10 +300,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -324,33 +327,34 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="47" style="0" width="8.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,6 +415,7 @@
       <c r="AP2" s="3"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
     </row>
     <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -478,6 +483,9 @@
       </c>
       <c r="V3" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Template_kpi_.xlsx
+++ b/Template/Template_kpi_.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
   </si>
   <si>
+    <t xml:space="preserve">*******************กลุ่มที่ bet ไว้ปลายปี****************</t>
+  </si>
+  <si>
     <t xml:space="preserve">บริษัท</t>
   </si>
   <si>
@@ -92,6 +95,18 @@
   </si>
   <si>
     <t xml:space="preserve">ปรับเงิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผ่านการ bet หรือไม่</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระยะเวลา bet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ตำแหน่งที่ต้องการ bet ต่อ</t>
   </si>
 </sst>
 </file>
@@ -101,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +151,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,7 +166,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,8 +181,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFADD58A"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFBCE4E5"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,7 +226,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -215,12 +243,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -236,7 +272,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -257,7 +293,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFBCE4E5"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -302,8 +338,8 @@
   </sheetPr>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA21" activeCellId="0" sqref="AA21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -334,7 +370,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="22.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.84"/>
@@ -394,10 +430,12 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="X2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
@@ -417,78 +455,94 @@
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="T3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="U3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="V3" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="W3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="X2:AA2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Template/Template_kpi_.xlsx
+++ b/Template/Template_kpi_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">ตำแหน่งที่ต้องการ bet ต่อ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment ตีกลับ</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,8 +341,8 @@
   </sheetPr>
   <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA21" activeCellId="0" sqref="AA21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="V1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z11" activeCellId="0" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,7 +540,9 @@
       <c r="AA3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AB3" s="7"/>
+      <c r="AB3" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
